--- a/data/trans_dic/P78D$otros_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P78D$otros_2023-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,26</t>
+          <t>1,2; 4,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,57</t>
+          <t>0,51; 2,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,99</t>
+          <t>1,07; 2,94</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,89</t>
+          <t>1,01; 3,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,88</t>
+          <t>1,85; 5,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,65</t>
+          <t>1,71; 3,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,98</t>
+          <t>0,98; 6,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,34</t>
+          <t>0,72; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,96</t>
+          <t>1,05; 4,96</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,79</t>
+          <t>3,65; 6,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,64</t>
+          <t>0,72; 2,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,44</t>
+          <t>2,41; 4,48</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,66</t>
+          <t>4,72; 10,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,73</t>
+          <t>3,86; 6,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,32</t>
+          <t>4,81; 7,28</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 10,25</t>
+          <t>0,63; 10,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,41</t>
+          <t>5,48; 9,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,31</t>
+          <t>4,68; 8,11</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,02</t>
+          <t>3,12; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,36</t>
+          <t>2,98; 4,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,27; 4,47</t>
+          <t>3,33; 4,47</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido algún retraso en otros pagos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11853</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5309</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17162</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5985; 23775</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2237; 11187</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10029; 27639</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9396</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11294</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20690</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4485; 16344</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7007; 19334</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14065; 30074</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21914</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25042</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6469; 39453</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1187; 6384</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8598; 40773</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52303</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15402</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>67705</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>37030; 70448</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6867; 24752</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47259; 88035</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>31841</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39359</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>71199</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21426; 45859</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28684; 49673</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>57582; 87108</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6866</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>50586</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>57451</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1341; 22674</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>39348; 71716</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>43624; 75639</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>134173</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>125076</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>259249</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>102465; 164500</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>101195; 150798</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>222233; 298365</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>